--- a/biology/Botanique/Zamiaceae/Zamiaceae.xlsx
+++ b/biology/Botanique/Zamiaceae/Zamiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Zamiaceae comprend environ 238 espèces appartenant à 9 ou 10 genres selon les auteurs.
 Géographiquement, ils sont très diversifiés et répandus dans les régions tropicales et tempérées chaudes de l'Afrique, l'Australie et jusqu'en Amérique du Sud.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Zamia, dérivé du latin nuces zamiae, selon la traduction de Pline l'Ancien ; il s'agit d'une transcription erronée de l'expression nuces azaniae, faisant référence aux pignons de pin, probablement du grec classique αζάινειν / azainein, sécher[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Zamia, dérivé du latin nuces zamiae, selon la traduction de Pline l'Ancien ; il s'agit d'une transcription erronée de l'expression nuces azaniae, faisant référence aux pignons de pin, probablement du grec classique αζάινειν / azainein, sécher.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Principaux genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bowenia (en) (3 espèces)
 Ceratozamia (28 espèces)
@@ -554,7 +570,7 @@
 Macrozamia (41 espèces)
 Microcycas (1 espèce)
 Stangeria (1 espèce)
-Zamia (80 espèces)[2]</t>
+Zamia (80 espèces)</t>
         </is>
       </c>
     </row>
